--- a/Flow chart english.xlsx
+++ b/Flow chart english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Al-Amin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Al-Amin\llama_parse_al\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C977206-38F6-44B1-B2E7-9A0D6B4DECC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F60731D-1B09-4AB1-A6C0-CD5C5EC973BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 3S6A013-00518-7F" sheetId="6" r:id="rId1"/>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Long and short PIN test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Take a group of products with both hands and place them on the CCD holder and align them with the reference line</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -645,14 +641,6 @@
   </si>
   <si>
     <t>External GAP &amp; appearance inspection (CCD inspection)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Internal GAP inspection (CCD inspection)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full inspection &amp; TR packaging</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -692,6 +680,15 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t>Full inspection &amp; TR packaging</t>
+  </si>
+  <si>
+    <t>Long and short PIN test</t>
+  </si>
+  <si>
+    <t>Internal GAP inspection (CCD inspection)</t>
   </si>
 </sst>
 </file>
@@ -1454,6 +1451,39 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="7" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="6" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1463,22 +1493,148 @@
     <xf numFmtId="165" fontId="20" fillId="3" borderId="6" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="7" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="6" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="22" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="22" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="21" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="7" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="7" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="6" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="26" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="16" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,36 +1644,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="6" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,136 +1658,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="24" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="22" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="22" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="7" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="6" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="26" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="7" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,14 +1689,7 @@
     <cellStyle name="百分比 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="百分比 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3683,11 +3673,11 @@
   <dimension ref="A1:AP100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="H6" sqref="H6"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31:M34"/>
+      <selection pane="bottomRight" activeCell="Q28" sqref="Q28:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5058,24 +5048,24 @@
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
       <c r="F1" s="84"/>
-      <c r="G1" s="152" t="s">
+      <c r="G1" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152" t="s">
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152" t="s">
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -5281,12 +5271,12 @@
       <c r="A5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="145" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="147"/>
+      <c r="B5" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="85" t="s">
         <v>70</v>
       </c>
@@ -5337,10 +5327,10 @@
       <c r="C6" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="140">
+      <c r="D6" s="125">
         <v>45672</v>
       </c>
-      <c r="E6" s="141"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="86">
         <v>8</v>
       </c>
@@ -5385,16 +5375,16 @@
       <c r="A7" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="144"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="87" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>108</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
@@ -5438,85 +5428,85 @@
       <c r="A9" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="109" t="s">
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="118" t="s">
+      <c r="F9" s="150"/>
+      <c r="G9" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="117" t="s">
+      <c r="H9" s="145"/>
+      <c r="I9" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117" t="s">
+      <c r="J9" s="143"/>
+      <c r="K9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="124" t="s">
+      <c r="L9" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="124" t="s">
+      <c r="M9" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="109" t="s">
+      <c r="N9" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="110"/>
-      <c r="P9" s="129" t="s">
+      <c r="O9" s="150"/>
+      <c r="P9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="131" t="s">
+      <c r="Q9" s="141"/>
+      <c r="R9" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="131"/>
-      <c r="T9" s="117" t="s">
+      <c r="S9" s="142"/>
+      <c r="T9" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="108" t="s">
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="129" t="s">
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="AA9" s="129" t="s">
+      <c r="AA9" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="AB9" s="129" t="s">
+      <c r="AB9" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="129" t="s">
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="116" t="s">
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="116"/>
-      <c r="AI9" s="112" t="s">
+      <c r="AG9" s="159"/>
+      <c r="AH9" s="159"/>
+      <c r="AI9" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="107" t="s">
+      <c r="AJ9" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="109" t="s">
+      <c r="AK9" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="110"/>
+      <c r="AL9" s="150"/>
+      <c r="AM9" s="150"/>
+      <c r="AN9" s="150"/>
     </row>
     <row r="10" spans="1:42" s="5" customFormat="1" ht="59.25" customHeight="1">
       <c r="A10" s="61" t="s">
@@ -5549,9 +5539,9 @@
       <c r="J10" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="120"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
       <c r="N10" s="61" t="s">
         <v>6</v>
       </c>
@@ -5588,8 +5578,8 @@
       <c r="Y10" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
       <c r="AB10" s="65" t="s">
         <v>12</v>
       </c>
@@ -5611,8 +5601,8 @@
       <c r="AH10" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="AI10" s="112"/>
-      <c r="AJ10" s="108"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="121"/>
       <c r="AK10" s="61" t="s">
         <v>49</v>
       </c>
@@ -5627,12 +5617,12 @@
       </c>
     </row>
     <row r="11" spans="1:42" ht="36">
-      <c r="A11" s="128"/>
-      <c r="B11" s="121">
+      <c r="A11" s="140"/>
+      <c r="B11" s="107">
         <v>8</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="123" t="s">
+      <c r="C11" s="108"/>
+      <c r="D11" s="109" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="12">
@@ -5645,37 +5635,37 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="126">
+      <c r="I11" s="110">
         <v>1</v>
       </c>
-      <c r="J11" s="104">
+      <c r="J11" s="101">
         <f>+G11+G13+G12</f>
         <v>6.88</v>
       </c>
-      <c r="K11" s="103">
+      <c r="K11" s="106">
         <v>1</v>
       </c>
-      <c r="L11" s="104">
+      <c r="L11" s="101">
         <f>J11/I11/K11</f>
         <v>6.88</v>
       </c>
-      <c r="M11" s="105">
+      <c r="M11" s="111">
         <f>(J11/I11*4350)/(8*4350*K11)</f>
         <v>0.86</v>
       </c>
-      <c r="N11" s="111" t="s">
-        <v>109</v>
+      <c r="N11" s="112" t="s">
+        <v>108</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="151" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q11" s="151" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="104"/>
+      <c r="P11" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="R11" s="101"/>
       <c r="S11" s="8"/>
       <c r="T11" s="10" t="s">
         <v>56</v>
@@ -5683,11 +5673,11 @@
       <c r="U11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="157" t="s">
-        <v>117</v>
-      </c>
-      <c r="W11" s="157" t="s">
-        <v>118</v>
+      <c r="V11" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="W11" s="113" t="s">
+        <v>115</v>
       </c>
       <c r="X11" s="137"/>
       <c r="Y11" s="138"/>
@@ -5695,23 +5685,23 @@
       <c r="AA11" s="79"/>
       <c r="AB11" s="80"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="91"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="153"/>
+      <c r="AJ11" s="102"/>
       <c r="AK11" s="78"/>
       <c r="AL11" s="78"/>
       <c r="AM11" s="78"/>
       <c r="AN11" s="78"/>
     </row>
     <row r="12" spans="1:42" ht="36">
-      <c r="A12" s="128"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="12">
         <v>2</v>
       </c>
@@ -5722,18 +5712,18 @@
         <v>2.63</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="111"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="112"/>
       <c r="O12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="104"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="101"/>
       <c r="S12" s="8"/>
       <c r="T12" s="9" t="s">
         <v>58</v>
@@ -5741,31 +5731,31 @@
       <c r="U12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V12" s="158"/>
-      <c r="W12" s="158"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
       <c r="X12" s="137"/>
       <c r="Y12" s="138"/>
       <c r="Z12" s="138"/>
       <c r="AA12" s="79"/>
       <c r="AB12" s="80"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="135"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="101"/>
-      <c r="AJ12" s="92"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="96"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="154"/>
+      <c r="AJ12" s="103"/>
       <c r="AK12" s="78"/>
       <c r="AL12" s="78"/>
       <c r="AM12" s="78"/>
       <c r="AN12" s="78"/>
     </row>
     <row r="13" spans="1:42" ht="36">
-      <c r="A13" s="128"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="12">
         <v>3</v>
       </c>
@@ -5776,18 +5766,18 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="111"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
       <c r="O13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="104"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="101"/>
       <c r="S13" s="8"/>
       <c r="T13" s="10" t="s">
         <v>56</v>
@@ -5795,33 +5785,33 @@
       <c r="U13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="158"/>
-      <c r="W13" s="158"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
       <c r="X13" s="137"/>
       <c r="Y13" s="138"/>
       <c r="Z13" s="138"/>
       <c r="AA13" s="79"/>
       <c r="AB13" s="80"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="135"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="93"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="155"/>
+      <c r="AJ13" s="104"/>
       <c r="AK13" s="78"/>
       <c r="AL13" s="78"/>
       <c r="AM13" s="78"/>
       <c r="AN13" s="78"/>
     </row>
     <row r="14" spans="1:42" ht="36">
-      <c r="A14" s="128"/>
-      <c r="B14" s="121">
+      <c r="A14" s="140"/>
+      <c r="B14" s="107">
         <v>9</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123" t="s">
+      <c r="C14" s="108"/>
+      <c r="D14" s="109" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="12">
@@ -5834,37 +5824,37 @@
         <v>0.99</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="126">
+      <c r="I14" s="110">
         <v>1</v>
       </c>
-      <c r="J14" s="104">
+      <c r="J14" s="101">
         <f>+G14+G15+G17+G16</f>
         <v>7.2</v>
       </c>
-      <c r="K14" s="103">
+      <c r="K14" s="106">
         <v>1</v>
       </c>
-      <c r="L14" s="104">
+      <c r="L14" s="101">
         <f>J14/I14/K14</f>
         <v>7.2</v>
       </c>
-      <c r="M14" s="105">
+      <c r="M14" s="111">
         <f>(J14/I14*4350)/(8*4350*K14)</f>
         <v>0.9</v>
       </c>
-      <c r="N14" s="111" t="s">
-        <v>112</v>
+      <c r="N14" s="112" t="s">
+        <v>111</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="127" t="s">
+      <c r="P14" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="127" t="s">
+      <c r="Q14" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="R14" s="104"/>
+      <c r="R14" s="101"/>
       <c r="S14" s="8"/>
       <c r="T14" s="10" t="s">
         <v>56</v>
@@ -5872,53 +5862,53 @@
       <c r="U14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="158"/>
-      <c r="W14" s="158"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
       <c r="X14" s="137"/>
       <c r="Y14" s="138"/>
       <c r="Z14" s="139"/>
       <c r="AA14" s="79"/>
       <c r="AB14" s="80"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="135"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="105"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="156"/>
-      <c r="AK14" s="111"/>
-      <c r="AL14" s="111"/>
-      <c r="AM14" s="111"/>
-      <c r="AN14" s="111"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="101"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="112"/>
+      <c r="AL14" s="112"/>
+      <c r="AM14" s="112"/>
+      <c r="AN14" s="112"/>
     </row>
     <row r="15" spans="1:42" ht="36">
-      <c r="A15" s="128"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="12">
         <v>2</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="6">
         <v>2.56</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="111"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="112"/>
       <c r="O15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="104"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="101"/>
       <c r="S15" s="8"/>
       <c r="T15" s="9" t="s">
         <v>58</v>
@@ -5926,31 +5916,31 @@
       <c r="U15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V15" s="158"/>
-      <c r="W15" s="158"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
       <c r="X15" s="137"/>
       <c r="Y15" s="138"/>
       <c r="Z15" s="138"/>
       <c r="AA15" s="79"/>
       <c r="AB15" s="80"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="135"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="104"/>
-      <c r="AJ15" s="156"/>
-      <c r="AK15" s="111"/>
-      <c r="AL15" s="111"/>
-      <c r="AM15" s="111"/>
-      <c r="AN15" s="111"/>
+      <c r="AD15" s="122"/>
+      <c r="AE15" s="122"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="101"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="112"/>
+      <c r="AL15" s="112"/>
+      <c r="AM15" s="112"/>
+      <c r="AN15" s="112"/>
     </row>
     <row r="16" spans="1:42" ht="54">
-      <c r="A16" s="128"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="12">
         <v>3</v>
       </c>
@@ -5961,18 +5951,18 @@
         <v>2.83</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="111"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="112"/>
       <c r="O16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="104"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="101"/>
       <c r="S16" s="8"/>
       <c r="T16" s="9" t="s">
         <v>58</v>
@@ -5980,31 +5970,31 @@
       <c r="U16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V16" s="158"/>
-      <c r="W16" s="158"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
       <c r="X16" s="137"/>
       <c r="Y16" s="138"/>
       <c r="Z16" s="138"/>
       <c r="AA16" s="79"/>
       <c r="AB16" s="80"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="135"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="105"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="156"/>
-      <c r="AK16" s="111"/>
-      <c r="AL16" s="111"/>
-      <c r="AM16" s="111"/>
-      <c r="AN16" s="111"/>
+      <c r="AD16" s="122"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="124"/>
+      <c r="AK16" s="112"/>
+      <c r="AL16" s="112"/>
+      <c r="AM16" s="112"/>
+      <c r="AN16" s="112"/>
     </row>
     <row r="17" spans="1:40" ht="36">
-      <c r="A17" s="128"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="12">
         <v>4</v>
       </c>
@@ -6015,18 +6005,18 @@
         <v>0.82</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="111"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="112"/>
       <c r="O17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="104"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="101"/>
       <c r="S17" s="8"/>
       <c r="T17" s="10" t="s">
         <v>56</v>
@@ -6034,33 +6024,33 @@
       <c r="U17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
       <c r="X17" s="137"/>
       <c r="Y17" s="138"/>
       <c r="Z17" s="138"/>
       <c r="AA17" s="79"/>
       <c r="AB17" s="80"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="135"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="104"/>
-      <c r="AH17" s="105"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="156"/>
-      <c r="AK17" s="111"/>
-      <c r="AL17" s="111"/>
-      <c r="AM17" s="111"/>
-      <c r="AN17" s="111"/>
+      <c r="AD17" s="122"/>
+      <c r="AE17" s="122"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="101"/>
+      <c r="AJ17" s="124"/>
+      <c r="AK17" s="112"/>
+      <c r="AL17" s="112"/>
+      <c r="AM17" s="112"/>
+      <c r="AN17" s="112"/>
     </row>
     <row r="18" spans="1:40" ht="59.25" customHeight="1">
-      <c r="A18" s="128"/>
-      <c r="B18" s="121">
+      <c r="A18" s="140"/>
+      <c r="B18" s="107">
         <v>10</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123" t="s">
+      <c r="C18" s="108"/>
+      <c r="D18" s="109" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="12">
@@ -6073,37 +6063,37 @@
         <v>2.87</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="126">
+      <c r="I18" s="110">
         <v>1</v>
       </c>
-      <c r="J18" s="104">
+      <c r="J18" s="101">
         <f>+G18+G20+G19</f>
         <v>6.2700000000000005</v>
       </c>
-      <c r="K18" s="103">
+      <c r="K18" s="106">
         <v>1</v>
       </c>
-      <c r="L18" s="104">
+      <c r="L18" s="101">
         <f>J18/I18/K18</f>
         <v>6.2700000000000005</v>
       </c>
-      <c r="M18" s="105">
+      <c r="M18" s="111">
         <f>(J18/I18*4350)/(8*4350*K18)</f>
         <v>0.78375000000000006</v>
       </c>
-      <c r="N18" s="111" t="s">
-        <v>109</v>
+      <c r="N18" s="112" t="s">
+        <v>108</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q18" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="R18" s="104"/>
+      <c r="P18" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="R18" s="101"/>
       <c r="S18" s="8"/>
       <c r="T18" s="10" t="s">
         <v>56</v>
@@ -6111,85 +6101,85 @@
       <c r="U18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
       <c r="X18" s="77"/>
       <c r="Y18" s="77"/>
       <c r="Z18" s="77"/>
       <c r="AA18" s="77"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="135"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="113"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="122"/>
+      <c r="AE18" s="122"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="156"/>
       <c r="AK18" s="78"/>
       <c r="AL18" s="78"/>
       <c r="AM18" s="78"/>
       <c r="AN18" s="78"/>
     </row>
     <row r="19" spans="1:40" ht="42.75" customHeight="1">
-      <c r="A19" s="128"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
       <c r="E19" s="12">
         <v>2</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G19" s="6">
         <v>3.16</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="111"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="112"/>
       <c r="O19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="104"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="101"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="160" t="s">
-        <v>121</v>
+      <c r="T19" s="91" t="s">
+        <v>118</v>
       </c>
       <c r="U19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="77"/>
       <c r="Z19" s="77"/>
       <c r="AA19" s="77"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="135"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="114"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="106"/>
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="122"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="157"/>
       <c r="AK19" s="78"/>
       <c r="AL19" s="78"/>
       <c r="AM19" s="78"/>
       <c r="AN19" s="78"/>
     </row>
     <row r="20" spans="1:40" ht="54">
-      <c r="A20" s="128"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="12">
         <v>3</v>
       </c>
@@ -6202,18 +6192,18 @@
       <c r="H20" s="76">
         <v>4.26</v>
       </c>
-      <c r="I20" s="126"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="111"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="112"/>
       <c r="O20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="104"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="101"/>
       <c r="S20" s="8"/>
       <c r="T20" s="10" t="s">
         <v>56</v>
@@ -6221,34 +6211,34 @@
       <c r="U20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="158"/>
-      <c r="W20" s="158"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
       <c r="X20" s="77"/>
       <c r="Y20" s="77"/>
       <c r="Z20" s="77"/>
       <c r="AA20" s="77"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="135"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="96"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="96"/>
-      <c r="AJ20" s="115"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="97"/>
+      <c r="AJ20" s="158"/>
       <c r="AK20" s="78"/>
       <c r="AL20" s="78"/>
       <c r="AM20" s="78"/>
       <c r="AN20" s="78"/>
     </row>
     <row r="21" spans="1:40" ht="36">
-      <c r="A21" s="128"/>
-      <c r="B21" s="121">
+      <c r="A21" s="140"/>
+      <c r="B21" s="107">
         <v>11</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="123" t="s">
-        <v>114</v>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109" t="s">
+        <v>113</v>
       </c>
       <c r="E21" s="12">
         <v>1</v>
@@ -6260,37 +6250,37 @@
         <v>1.98</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="126">
+      <c r="I21" s="110">
         <v>1</v>
       </c>
-      <c r="J21" s="104">
+      <c r="J21" s="101">
         <f>+G21+G23+G22</f>
         <v>6.07</v>
       </c>
-      <c r="K21" s="103">
+      <c r="K21" s="106">
         <v>1</v>
       </c>
-      <c r="L21" s="104">
+      <c r="L21" s="101">
         <f>J21/I21/K21</f>
         <v>6.07</v>
       </c>
-      <c r="M21" s="105">
+      <c r="M21" s="111">
         <f>(J21/I21*4350)/(8*4350*K21)</f>
         <v>0.75875000000000004</v>
       </c>
-      <c r="N21" s="111" t="s">
-        <v>109</v>
+      <c r="N21" s="112" t="s">
+        <v>108</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P21" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q21" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="R21" s="104"/>
+      <c r="P21" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="R21" s="101"/>
       <c r="S21" s="8"/>
       <c r="T21" s="10" t="s">
         <v>56</v>
@@ -6298,31 +6288,31 @@
       <c r="U21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V21" s="158"/>
-      <c r="W21" s="158"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
       <c r="X21" s="77"/>
       <c r="Y21" s="77"/>
       <c r="Z21" s="77"/>
       <c r="AA21" s="77"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="135"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="94"/>
-      <c r="AJ21" s="113"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="102"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="156"/>
       <c r="AK21" s="78"/>
       <c r="AL21" s="78"/>
       <c r="AM21" s="78"/>
       <c r="AN21" s="78"/>
     </row>
     <row r="22" spans="1:40" ht="54">
-      <c r="A22" s="128"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
       <c r="E22" s="12">
         <v>2</v>
       </c>
@@ -6333,18 +6323,18 @@
         <v>2.86</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="111"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="112"/>
       <c r="O22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="104"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="101"/>
       <c r="S22" s="8"/>
       <c r="T22" s="9" t="s">
         <v>58</v>
@@ -6352,31 +6342,31 @@
       <c r="U22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V22" s="158"/>
-      <c r="W22" s="158"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
       <c r="X22" s="77"/>
       <c r="Y22" s="77"/>
       <c r="Z22" s="77"/>
       <c r="AA22" s="77"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="135"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="114"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="122"/>
+      <c r="AE22" s="122"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="157"/>
       <c r="AK22" s="78"/>
       <c r="AL22" s="78"/>
       <c r="AM22" s="78"/>
       <c r="AN22" s="78"/>
     </row>
     <row r="23" spans="1:40" ht="36">
-      <c r="A23" s="128"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="12">
         <v>3</v>
       </c>
@@ -6387,18 +6377,18 @@
         <v>1.23</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="111"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="112"/>
       <c r="O23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="104"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="101"/>
       <c r="S23" s="8"/>
       <c r="T23" s="10" t="s">
         <v>56</v>
@@ -6406,33 +6396,33 @@
       <c r="U23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="114"/>
       <c r="X23" s="77"/>
       <c r="Y23" s="77"/>
       <c r="Z23" s="77"/>
       <c r="AA23" s="77"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="135"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="115"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="106"/>
+      <c r="AD23" s="122"/>
+      <c r="AE23" s="122"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="104"/>
+      <c r="AI23" s="97"/>
+      <c r="AJ23" s="158"/>
       <c r="AK23" s="78"/>
       <c r="AL23" s="78"/>
       <c r="AM23" s="78"/>
       <c r="AN23" s="78"/>
     </row>
     <row r="24" spans="1:40" ht="60" customHeight="1">
-      <c r="A24" s="128"/>
-      <c r="B24" s="121">
+      <c r="A24" s="140"/>
+      <c r="B24" s="107">
         <v>12</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="123" t="s">
+      <c r="C24" s="108"/>
+      <c r="D24" s="109" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="12">
@@ -6445,37 +6435,37 @@
         <v>3.52</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="126">
+      <c r="I24" s="110">
         <v>1</v>
       </c>
-      <c r="J24" s="104">
+      <c r="J24" s="101">
         <f>+G24+G25+G27+G26</f>
         <v>40.5</v>
       </c>
-      <c r="K24" s="103">
+      <c r="K24" s="106">
         <v>6</v>
       </c>
-      <c r="L24" s="104">
+      <c r="L24" s="101">
         <f>J24/I24/K24</f>
         <v>6.75</v>
       </c>
-      <c r="M24" s="105">
+      <c r="M24" s="111">
         <f>(J24/I24*4350)/(8*4350*K24)</f>
         <v>0.84375</v>
       </c>
-      <c r="N24" s="111" t="s">
-        <v>109</v>
+      <c r="N24" s="112" t="s">
+        <v>108</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q24" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" s="104"/>
+      <c r="P24" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="R24" s="101"/>
       <c r="S24" s="8"/>
       <c r="T24" s="10" t="s">
         <v>56</v>
@@ -6483,31 +6473,31 @@
       <c r="U24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
       <c r="X24" s="77"/>
       <c r="Y24" s="77"/>
       <c r="Z24" s="77"/>
       <c r="AA24" s="77"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="135"/>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="104"/>
-      <c r="AH24" s="105"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="105"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="122"/>
+      <c r="AE24" s="122"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="160"/>
+      <c r="AJ24" s="111"/>
       <c r="AK24" s="78"/>
       <c r="AL24" s="78"/>
       <c r="AM24" s="78"/>
       <c r="AN24" s="78"/>
     </row>
     <row r="25" spans="1:40" ht="76.5" customHeight="1">
-      <c r="A25" s="128"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
       <c r="E25" s="12">
         <v>2</v>
       </c>
@@ -6518,18 +6508,18 @@
         <v>10.78</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="111"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="112"/>
       <c r="O25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="104"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="101"/>
       <c r="S25" s="8"/>
       <c r="T25" s="9" t="s">
         <v>58</v>
@@ -6537,31 +6527,31 @@
       <c r="U25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
+      <c r="V25" s="114"/>
+      <c r="W25" s="114"/>
       <c r="X25" s="77"/>
       <c r="Y25" s="77"/>
       <c r="Z25" s="77"/>
       <c r="AA25" s="77"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="135"/>
-      <c r="AF25" s="103"/>
-      <c r="AG25" s="104"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="106"/>
-      <c r="AJ25" s="105"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="122"/>
+      <c r="AE25" s="122"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="111"/>
+      <c r="AI25" s="160"/>
+      <c r="AJ25" s="111"/>
       <c r="AK25" s="78"/>
       <c r="AL25" s="78"/>
       <c r="AM25" s="78"/>
       <c r="AN25" s="78"/>
     </row>
     <row r="26" spans="1:40" ht="40.5" customHeight="1">
-      <c r="A26" s="128"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
       <c r="E26" s="12">
         <v>3</v>
       </c>
@@ -6572,18 +6562,18 @@
         <v>23.12</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="111"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="112"/>
       <c r="O26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="104"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="101"/>
       <c r="S26" s="8"/>
       <c r="T26" s="9" t="s">
         <v>58</v>
@@ -6591,31 +6581,31 @@
       <c r="U26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
       <c r="X26" s="77"/>
       <c r="Y26" s="77"/>
       <c r="Z26" s="77"/>
       <c r="AA26" s="77"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="135"/>
-      <c r="AF26" s="103"/>
-      <c r="AG26" s="104"/>
-      <c r="AH26" s="105"/>
-      <c r="AI26" s="106"/>
-      <c r="AJ26" s="105"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="122"/>
+      <c r="AE26" s="122"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="111"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="111"/>
       <c r="AK26" s="78"/>
       <c r="AL26" s="78"/>
       <c r="AM26" s="78"/>
       <c r="AN26" s="78"/>
     </row>
     <row r="27" spans="1:40" ht="38.25" customHeight="1">
-      <c r="A27" s="128"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="12">
         <v>4</v>
       </c>
@@ -6626,18 +6616,18 @@
         <v>3.08</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="111"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="112"/>
       <c r="O27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="104"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="101"/>
       <c r="S27" s="8"/>
       <c r="T27" s="10" t="s">
         <v>56</v>
@@ -6645,34 +6635,34 @@
       <c r="U27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
+      <c r="V27" s="114"/>
+      <c r="W27" s="114"/>
       <c r="X27" s="77"/>
       <c r="Y27" s="77"/>
       <c r="Z27" s="77"/>
       <c r="AA27" s="77"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="135"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="104"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="106"/>
-      <c r="AJ27" s="105"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="122"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="160"/>
+      <c r="AJ27" s="111"/>
       <c r="AK27" s="78"/>
       <c r="AL27" s="78"/>
       <c r="AM27" s="78"/>
       <c r="AN27" s="78"/>
     </row>
     <row r="28" spans="1:40" ht="36">
-      <c r="A28" s="128"/>
-      <c r="B28" s="121">
+      <c r="A28" s="140"/>
+      <c r="B28" s="107">
         <v>13</v>
       </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123" t="s">
-        <v>115</v>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109" t="s">
+        <v>121</v>
       </c>
       <c r="E28" s="12">
         <v>1</v>
@@ -6684,37 +6674,37 @@
         <v>1.88</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="126">
+      <c r="I28" s="110">
         <v>1</v>
       </c>
-      <c r="J28" s="104">
+      <c r="J28" s="101">
         <f>+G28+G30+G29</f>
         <v>6.1400000000000006</v>
       </c>
-      <c r="K28" s="103">
+      <c r="K28" s="106">
         <v>1</v>
       </c>
-      <c r="L28" s="104">
+      <c r="L28" s="101">
         <f>J28/I28/K28</f>
         <v>6.1400000000000006</v>
       </c>
-      <c r="M28" s="105">
+      <c r="M28" s="111">
         <f>(J28/I28*4350)/(8*4350*K28)</f>
         <v>0.76750000000000007</v>
       </c>
-      <c r="N28" s="111" t="s">
-        <v>109</v>
+      <c r="N28" s="112" t="s">
+        <v>108</v>
       </c>
       <c r="O28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q28" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="R28" s="104"/>
+      <c r="P28" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="R28" s="101"/>
       <c r="S28" s="8"/>
       <c r="T28" s="10" t="s">
         <v>56</v>
@@ -6722,31 +6712,31 @@
       <c r="U28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
+      <c r="V28" s="114"/>
+      <c r="W28" s="114"/>
       <c r="X28" s="77"/>
       <c r="Y28" s="77"/>
       <c r="Z28" s="77"/>
       <c r="AA28" s="77"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="135"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="100"/>
-      <c r="AJ28" s="91"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="106"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="122"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="153"/>
+      <c r="AJ28" s="102"/>
       <c r="AK28" s="78"/>
       <c r="AL28" s="78"/>
       <c r="AM28" s="78"/>
       <c r="AN28" s="78"/>
     </row>
     <row r="29" spans="1:40" ht="54">
-      <c r="A29" s="128"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
       <c r="E29" s="12">
         <v>2</v>
       </c>
@@ -6757,18 +6747,18 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="111"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="112"/>
       <c r="O29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="104"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="101"/>
       <c r="S29" s="8"/>
       <c r="T29" s="9" t="s">
         <v>58</v>
@@ -6776,31 +6766,31 @@
       <c r="U29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V29" s="158"/>
-      <c r="W29" s="158"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
       <c r="X29" s="77"/>
       <c r="Y29" s="77"/>
       <c r="Z29" s="77"/>
       <c r="AA29" s="77"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="135"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="92"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="122"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="96"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="154"/>
+      <c r="AJ29" s="103"/>
       <c r="AK29" s="78"/>
       <c r="AL29" s="78"/>
       <c r="AM29" s="78"/>
       <c r="AN29" s="78"/>
     </row>
     <row r="30" spans="1:40" ht="36">
-      <c r="A30" s="128"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
       <c r="E30" s="12">
         <v>3</v>
       </c>
@@ -6811,18 +6801,18 @@
         <v>1.77</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="111"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="112"/>
       <c r="O30" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="104"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="101"/>
       <c r="S30" s="8"/>
       <c r="T30" s="10" t="s">
         <v>56</v>
@@ -6830,33 +6820,33 @@
       <c r="U30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V30" s="159"/>
-      <c r="W30" s="159"/>
+      <c r="V30" s="115"/>
+      <c r="W30" s="115"/>
       <c r="X30" s="77"/>
       <c r="Y30" s="77"/>
       <c r="Z30" s="77"/>
       <c r="AA30" s="77"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="135"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="96"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="102"/>
-      <c r="AJ30" s="93"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="122"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="97"/>
+      <c r="AH30" s="104"/>
+      <c r="AI30" s="155"/>
+      <c r="AJ30" s="104"/>
       <c r="AK30" s="78"/>
       <c r="AL30" s="78"/>
       <c r="AM30" s="78"/>
       <c r="AN30" s="78"/>
     </row>
     <row r="31" spans="1:40" ht="72">
-      <c r="A31" s="128"/>
-      <c r="B31" s="121">
+      <c r="A31" s="140"/>
+      <c r="B31" s="107">
         <v>14</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="123" t="s">
+      <c r="C31" s="108"/>
+      <c r="D31" s="109" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="12">
@@ -6869,37 +6859,37 @@
         <v>3.21</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="126">
+      <c r="I31" s="110">
         <v>1</v>
       </c>
-      <c r="J31" s="104">
+      <c r="J31" s="101">
         <f>+G31+G32+G34+G33</f>
         <v>14</v>
       </c>
-      <c r="K31" s="103">
+      <c r="K31" s="106">
         <v>2</v>
       </c>
-      <c r="L31" s="104">
+      <c r="L31" s="101">
         <f>J31/I31/K31</f>
         <v>7</v>
       </c>
-      <c r="M31" s="105">
+      <c r="M31" s="111">
         <f>(J31/I31*4350)/(8*4350*K31)</f>
         <v>0.875</v>
       </c>
-      <c r="N31" s="111" t="s">
-        <v>109</v>
+      <c r="N31" s="112" t="s">
+        <v>108</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="127" t="s">
+      <c r="P31" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q31" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="Q31" s="127" t="s">
-        <v>111</v>
-      </c>
-      <c r="R31" s="104"/>
+      <c r="R31" s="101"/>
       <c r="S31" s="8"/>
       <c r="T31" s="10" t="s">
         <v>56</v>
@@ -6907,39 +6897,39 @@
       <c r="U31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
       <c r="X31" s="77"/>
       <c r="Y31" s="77"/>
       <c r="Z31" s="77"/>
       <c r="AA31" s="77"/>
-      <c r="AB31" s="103"/>
+      <c r="AB31" s="106"/>
       <c r="AC31" s="77"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="135"/>
-      <c r="AF31" s="97">
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="122"/>
+      <c r="AF31" s="98">
         <v>2</v>
       </c>
-      <c r="AG31" s="94">
+      <c r="AG31" s="95">
         <f>L31</f>
         <v>7</v>
       </c>
-      <c r="AH31" s="91">
+      <c r="AH31" s="102">
         <f>M31</f>
         <v>0.875</v>
       </c>
-      <c r="AI31" s="100"/>
-      <c r="AJ31" s="91"/>
+      <c r="AI31" s="153"/>
+      <c r="AJ31" s="102"/>
       <c r="AK31" s="78"/>
       <c r="AL31" s="78"/>
       <c r="AM31" s="78"/>
       <c r="AN31" s="78"/>
     </row>
     <row r="32" spans="1:40" ht="90">
-      <c r="A32" s="128"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
       <c r="E32" s="12">
         <v>2</v>
       </c>
@@ -6950,18 +6940,18 @@
         <v>5.24</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="111"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="112"/>
       <c r="O32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="104"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="101"/>
       <c r="S32" s="8"/>
       <c r="T32" s="9" t="s">
         <v>58</v>
@@ -6969,31 +6959,31 @@
       <c r="U32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
       <c r="X32" s="77"/>
       <c r="Y32" s="77"/>
       <c r="Z32" s="77"/>
       <c r="AA32" s="77"/>
-      <c r="AB32" s="103"/>
+      <c r="AB32" s="106"/>
       <c r="AC32" s="77"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="135"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="101"/>
-      <c r="AJ32" s="92"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="122"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="96"/>
+      <c r="AH32" s="103"/>
+      <c r="AI32" s="154"/>
+      <c r="AJ32" s="103"/>
       <c r="AK32" s="78"/>
       <c r="AL32" s="78"/>
       <c r="AM32" s="78"/>
       <c r="AN32" s="78"/>
     </row>
     <row r="33" spans="1:40" ht="44.25" customHeight="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
       <c r="E33" s="12">
         <v>3</v>
       </c>
@@ -7004,18 +6994,18 @@
         <v>4.37</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="111"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="112"/>
       <c r="O33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="104"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="101"/>
       <c r="S33" s="8"/>
       <c r="T33" s="9" t="s">
         <v>58</v>
@@ -7023,31 +7013,31 @@
       <c r="U33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
+      <c r="V33" s="106"/>
+      <c r="W33" s="106"/>
       <c r="X33" s="77"/>
       <c r="Y33" s="77"/>
       <c r="Z33" s="77"/>
       <c r="AA33" s="77"/>
-      <c r="AB33" s="103"/>
+      <c r="AB33" s="106"/>
       <c r="AC33" s="77"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="135"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="101"/>
-      <c r="AJ33" s="92"/>
+      <c r="AD33" s="122"/>
+      <c r="AE33" s="122"/>
+      <c r="AF33" s="99"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="103"/>
+      <c r="AI33" s="154"/>
+      <c r="AJ33" s="103"/>
       <c r="AK33" s="78"/>
       <c r="AL33" s="78"/>
       <c r="AM33" s="78"/>
       <c r="AN33" s="78"/>
     </row>
     <row r="34" spans="1:40" ht="41.25" customHeight="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="12">
         <v>4</v>
       </c>
@@ -7058,18 +7048,18 @@
         <v>1.18</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="111"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="112"/>
       <c r="O34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="104"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="101"/>
       <c r="S34" s="8"/>
       <c r="T34" s="10" t="s">
         <v>56</v>
@@ -7077,76 +7067,76 @@
       <c r="U34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
+      <c r="V34" s="106"/>
+      <c r="W34" s="106"/>
       <c r="X34" s="77"/>
       <c r="Y34" s="77"/>
       <c r="Z34" s="77"/>
       <c r="AA34" s="77"/>
-      <c r="AB34" s="103"/>
+      <c r="AB34" s="106"/>
       <c r="AC34" s="77"/>
-      <c r="AD34" s="135"/>
-      <c r="AE34" s="135"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="96"/>
-      <c r="AH34" s="93"/>
-      <c r="AI34" s="102"/>
-      <c r="AJ34" s="93"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="122"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="104"/>
+      <c r="AI34" s="155"/>
+      <c r="AJ34" s="104"/>
       <c r="AK34" s="78"/>
       <c r="AL34" s="78"/>
       <c r="AM34" s="78"/>
       <c r="AN34" s="78"/>
     </row>
     <row r="35" spans="1:40" ht="57" customHeight="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="121">
+      <c r="A35" s="140"/>
+      <c r="B35" s="107">
         <v>15</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="123" t="s">
-        <v>101</v>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109" t="s">
+        <v>120</v>
       </c>
       <c r="E35" s="12">
         <v>1</v>
       </c>
       <c r="F35" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G35" s="6">
         <v>1.1200000000000001</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="132">
+      <c r="I35" s="92">
         <v>1</v>
       </c>
-      <c r="J35" s="94">
+      <c r="J35" s="95">
         <f>G35+G36+G37</f>
         <v>6.5</v>
       </c>
-      <c r="K35" s="97">
+      <c r="K35" s="98">
         <v>2</v>
       </c>
-      <c r="L35" s="104">
+      <c r="L35" s="101">
         <f>J35/I35/K35</f>
         <v>3.25</v>
       </c>
-      <c r="M35" s="91">
+      <c r="M35" s="102">
         <f>(J35/I35*4350)/(8*4350*K35)</f>
         <v>0.40625</v>
       </c>
-      <c r="N35" s="111" t="s">
+      <c r="N35" s="112" t="s">
         <v>53</v>
       </c>
       <c r="O35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P35" s="127" t="s">
+      <c r="P35" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="Q35" s="127" t="s">
+      <c r="Q35" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="R35" s="104" t="s">
+      <c r="R35" s="101" t="s">
         <v>60</v>
       </c>
       <c r="S35" s="8"/>
@@ -7156,65 +7146,65 @@
       <c r="U35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V35" s="103" t="s">
+      <c r="V35" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="W35" s="103" t="s">
+      <c r="W35" s="106" t="s">
         <v>55</v>
       </c>
       <c r="X35" s="77"/>
       <c r="Y35" s="77"/>
       <c r="Z35" s="77"/>
       <c r="AA35" s="77"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="135"/>
-      <c r="AE35" s="135"/>
-      <c r="AF35" s="97">
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="106"/>
+      <c r="AD35" s="122"/>
+      <c r="AE35" s="122"/>
+      <c r="AF35" s="98">
         <v>2</v>
       </c>
-      <c r="AG35" s="94">
+      <c r="AG35" s="95">
         <f>L35</f>
         <v>3.25</v>
       </c>
-      <c r="AH35" s="91">
+      <c r="AH35" s="102">
         <f>M35</f>
         <v>0.40625</v>
       </c>
-      <c r="AI35" s="94"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="111"/>
-      <c r="AL35" s="111"/>
-      <c r="AM35" s="111"/>
-      <c r="AN35" s="111"/>
+      <c r="AI35" s="95"/>
+      <c r="AJ35" s="111"/>
+      <c r="AK35" s="112"/>
+      <c r="AL35" s="112"/>
+      <c r="AM35" s="112"/>
+      <c r="AN35" s="112"/>
     </row>
     <row r="36" spans="1:40" ht="77.25" customHeight="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
       <c r="E36" s="12">
         <v>2</v>
       </c>
       <c r="F36" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36" s="6">
         <v>3.73</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="111"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="112"/>
       <c r="O36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="104"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="101"/>
       <c r="S36" s="8"/>
       <c r="T36" s="9" t="s">
         <v>58</v>
@@ -7222,53 +7212,53 @@
       <c r="U36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
+      <c r="V36" s="106"/>
+      <c r="W36" s="106"/>
       <c r="X36" s="77"/>
       <c r="Y36" s="77"/>
       <c r="Z36" s="77"/>
       <c r="AA36" s="77"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="135"/>
-      <c r="AE36" s="135"/>
-      <c r="AF36" s="98"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="92"/>
-      <c r="AI36" s="95"/>
-      <c r="AJ36" s="105"/>
-      <c r="AK36" s="111"/>
-      <c r="AL36" s="111"/>
-      <c r="AM36" s="111"/>
-      <c r="AN36" s="111"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="106"/>
+      <c r="AD36" s="122"/>
+      <c r="AE36" s="122"/>
+      <c r="AF36" s="99"/>
+      <c r="AG36" s="96"/>
+      <c r="AH36" s="103"/>
+      <c r="AI36" s="96"/>
+      <c r="AJ36" s="111"/>
+      <c r="AK36" s="112"/>
+      <c r="AL36" s="112"/>
+      <c r="AM36" s="112"/>
+      <c r="AN36" s="112"/>
     </row>
     <row r="37" spans="1:40" ht="60.75" customHeight="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
       <c r="E37" s="12">
         <v>3</v>
       </c>
       <c r="F37" s="83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G37" s="6">
         <v>1.65</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="134"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="111"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="112"/>
       <c r="O37" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="104"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="101"/>
       <c r="S37" s="8"/>
       <c r="T37" s="10" t="s">
         <v>56</v>
@@ -7276,76 +7266,76 @@
       <c r="U37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V37" s="103"/>
-      <c r="W37" s="103"/>
+      <c r="V37" s="106"/>
+      <c r="W37" s="106"/>
       <c r="X37" s="77"/>
       <c r="Y37" s="77"/>
       <c r="Z37" s="77"/>
       <c r="AA37" s="77"/>
-      <c r="AB37" s="103"/>
-      <c r="AC37" s="103"/>
-      <c r="AD37" s="135"/>
-      <c r="AE37" s="135"/>
-      <c r="AF37" s="98"/>
-      <c r="AG37" s="95"/>
-      <c r="AH37" s="92"/>
-      <c r="AI37" s="95"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="111"/>
-      <c r="AL37" s="111"/>
-      <c r="AM37" s="111"/>
-      <c r="AN37" s="111"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="106"/>
+      <c r="AD37" s="122"/>
+      <c r="AE37" s="122"/>
+      <c r="AF37" s="99"/>
+      <c r="AG37" s="96"/>
+      <c r="AH37" s="103"/>
+      <c r="AI37" s="96"/>
+      <c r="AJ37" s="111"/>
+      <c r="AK37" s="112"/>
+      <c r="AL37" s="112"/>
+      <c r="AM37" s="112"/>
+      <c r="AN37" s="112"/>
     </row>
     <row r="38" spans="1:40" ht="60.75" customHeight="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="121">
+      <c r="A38" s="140"/>
+      <c r="B38" s="107">
         <v>17</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="123" t="s">
-        <v>116</v>
+      <c r="C38" s="108"/>
+      <c r="D38" s="109" t="s">
+        <v>119</v>
       </c>
       <c r="E38" s="12">
         <v>1</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="6">
         <v>2.0299999999999998</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="133">
+      <c r="I38" s="93">
         <v>1</v>
       </c>
-      <c r="J38" s="94">
+      <c r="J38" s="95">
         <f>G38+G39+G40</f>
         <v>5.43</v>
       </c>
-      <c r="K38" s="98">
+      <c r="K38" s="99">
         <v>2</v>
       </c>
-      <c r="L38" s="104">
+      <c r="L38" s="101">
         <f>J38/I38/K38</f>
         <v>2.7149999999999999</v>
       </c>
-      <c r="M38" s="91">
+      <c r="M38" s="102">
         <f>(J38/I38*4350)/(8*4350*K38)</f>
         <v>0.33937499999999998</v>
       </c>
-      <c r="N38" s="111" t="s">
+      <c r="N38" s="112" t="s">
         <v>53</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P38" s="154" t="s">
+      <c r="P38" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="Q38" s="127" t="s">
+      <c r="Q38" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="R38" s="103" t="s">
+      <c r="R38" s="106" t="s">
         <v>61</v>
       </c>
       <c r="S38" s="8"/>
@@ -7355,62 +7345,62 @@
       <c r="U38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="V38" s="155"/>
-      <c r="W38" s="155"/>
+      <c r="V38" s="119"/>
+      <c r="W38" s="119"/>
       <c r="X38" s="81"/>
       <c r="Y38" s="81"/>
       <c r="Z38" s="81"/>
       <c r="AA38" s="81"/>
-      <c r="AB38" s="103"/>
-      <c r="AC38" s="103"/>
-      <c r="AD38" s="135"/>
-      <c r="AE38" s="135"/>
-      <c r="AF38" s="98"/>
-      <c r="AG38" s="95"/>
-      <c r="AH38" s="92"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="105"/>
-      <c r="AK38" s="153" t="s">
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="106"/>
+      <c r="AD38" s="122"/>
+      <c r="AE38" s="122"/>
+      <c r="AF38" s="99"/>
+      <c r="AG38" s="96"/>
+      <c r="AH38" s="103"/>
+      <c r="AI38" s="96"/>
+      <c r="AJ38" s="111"/>
+      <c r="AK38" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="AL38" s="148" t="s">
+      <c r="AL38" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="AM38" s="111">
+      <c r="AM38" s="112">
         <v>500</v>
       </c>
-      <c r="AN38" s="149">
+      <c r="AN38" s="134">
         <f>+AL38/AM38</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="39" spans="1:40" ht="27" customHeight="1">
-      <c r="A39" s="128"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
       <c r="E39" s="12">
         <v>2</v>
       </c>
       <c r="F39" s="83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G39" s="6">
         <v>2.06</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="111"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="112"/>
       <c r="O39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="103"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="106"/>
       <c r="S39" s="8"/>
       <c r="T39" s="9" t="s">
         <v>64</v>
@@ -7418,31 +7408,31 @@
       <c r="U39" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
+      <c r="V39" s="119"/>
+      <c r="W39" s="119"/>
       <c r="X39" s="81"/>
       <c r="Y39" s="81"/>
       <c r="Z39" s="81"/>
       <c r="AA39" s="81"/>
-      <c r="AB39" s="103"/>
-      <c r="AC39" s="103"/>
-      <c r="AD39" s="135"/>
-      <c r="AE39" s="135"/>
-      <c r="AF39" s="98"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="92"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="105"/>
-      <c r="AK39" s="153"/>
-      <c r="AL39" s="148"/>
-      <c r="AM39" s="111"/>
-      <c r="AN39" s="149"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="106"/>
+      <c r="AD39" s="122"/>
+      <c r="AE39" s="122"/>
+      <c r="AF39" s="99"/>
+      <c r="AG39" s="96"/>
+      <c r="AH39" s="103"/>
+      <c r="AI39" s="96"/>
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="117"/>
+      <c r="AL39" s="133"/>
+      <c r="AM39" s="112"/>
+      <c r="AN39" s="134"/>
     </row>
     <row r="40" spans="1:40" ht="45" customHeight="1">
-      <c r="A40" s="128"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
       <c r="E40" s="12">
         <v>3</v>
       </c>
@@ -7453,18 +7443,18 @@
         <v>1.34</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="111"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="112"/>
       <c r="O40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="103"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="106"/>
       <c r="S40" s="8"/>
       <c r="T40" s="9" t="s">
         <v>58</v>
@@ -7472,25 +7462,25 @@
       <c r="U40" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="V40" s="155"/>
-      <c r="W40" s="155"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="119"/>
       <c r="X40" s="81"/>
       <c r="Y40" s="81"/>
       <c r="Z40" s="81"/>
       <c r="AA40" s="81"/>
-      <c r="AB40" s="103"/>
-      <c r="AC40" s="103"/>
-      <c r="AD40" s="136"/>
-      <c r="AE40" s="136"/>
-      <c r="AF40" s="99"/>
-      <c r="AG40" s="96"/>
-      <c r="AH40" s="93"/>
-      <c r="AI40" s="96"/>
-      <c r="AJ40" s="105"/>
-      <c r="AK40" s="153"/>
-      <c r="AL40" s="148"/>
-      <c r="AM40" s="111"/>
-      <c r="AN40" s="149"/>
+      <c r="AB40" s="106"/>
+      <c r="AC40" s="106"/>
+      <c r="AD40" s="123"/>
+      <c r="AE40" s="123"/>
+      <c r="AF40" s="100"/>
+      <c r="AG40" s="97"/>
+      <c r="AH40" s="104"/>
+      <c r="AI40" s="97"/>
+      <c r="AJ40" s="111"/>
+      <c r="AK40" s="117"/>
+      <c r="AL40" s="133"/>
+      <c r="AM40" s="112"/>
+      <c r="AN40" s="134"/>
     </row>
     <row r="41" spans="1:40" ht="30.75" thickBot="1">
       <c r="A41" s="29" t="s">
@@ -7586,12 +7576,12 @@
       <c r="AN42" s="18"/>
     </row>
     <row r="43" spans="1:40" ht="18" customHeight="1">
-      <c r="A43" s="150" t="s">
+      <c r="A43" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
       <c r="F43" s="90"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -7633,10 +7623,10 @@
       <c r="AN43" s="18"/>
     </row>
     <row r="44" spans="1:40" ht="18" customHeight="1">
-      <c r="A44" s="150"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
       <c r="F44" s="90"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -7676,10 +7666,10 @@
       <c r="AN44" s="14"/>
     </row>
     <row r="45" spans="1:40" ht="18" customHeight="1">
-      <c r="A45" s="150"/>
-      <c r="B45" s="150"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
       <c r="F45" s="90"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -7719,10 +7709,10 @@
       <c r="AN45" s="14"/>
     </row>
     <row r="46" spans="1:40" ht="18" customHeight="1">
-      <c r="A46" s="150"/>
-      <c r="B46" s="150"/>
-      <c r="C46" s="150"/>
-      <c r="D46" s="150"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
       <c r="F46" s="90"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -8763,71 +8753,134 @@
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="P31:P34"/>
-    <mergeCell ref="Q31:Q34"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="W31:W34"/>
-    <mergeCell ref="AB31:AB34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="Q28:Q30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="P28:P30"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="AB28:AB30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="R28:R30"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="AB24:AB27"/>
-    <mergeCell ref="V11:V30"/>
-    <mergeCell ref="W11:W30"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="AH18:AH20"/>
+    <mergeCell ref="AI18:AI20"/>
+    <mergeCell ref="AH21:AH23"/>
+    <mergeCell ref="AI21:AI23"/>
+    <mergeCell ref="AF31:AF34"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AF24:AF27"/>
+    <mergeCell ref="AG24:AG27"/>
+    <mergeCell ref="AH24:AH27"/>
+    <mergeCell ref="AI24:AI27"/>
+    <mergeCell ref="AG31:AG34"/>
+    <mergeCell ref="AH31:AH34"/>
+    <mergeCell ref="AI31:AI34"/>
+    <mergeCell ref="AJ31:AJ34"/>
+    <mergeCell ref="AF35:AF40"/>
+    <mergeCell ref="AG35:AG40"/>
+    <mergeCell ref="AH35:AH40"/>
+    <mergeCell ref="AI35:AI40"/>
+    <mergeCell ref="AF28:AF30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK14:AK17"/>
+    <mergeCell ref="AL14:AL17"/>
+    <mergeCell ref="AM14:AM17"/>
+    <mergeCell ref="AN14:AN17"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="AJ21:AJ23"/>
+    <mergeCell ref="AJ18:AJ20"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AM35:AM37"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AF18:AF20"/>
+    <mergeCell ref="AG18:AG20"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A11:A40"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="AK35:AK37"/>
+    <mergeCell ref="AL35:AL37"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="AC24:AC27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="AN35:AN37"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="AB35:AB37"/>
+    <mergeCell ref="AC35:AC37"/>
+    <mergeCell ref="AJ35:AJ37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="AD11:AD40"/>
+    <mergeCell ref="AB18:AB20"/>
+    <mergeCell ref="AC18:AC20"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="Y14:Y17"/>
+    <mergeCell ref="Z14:Z17"/>
+    <mergeCell ref="AC28:AC30"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="AC21:AC23"/>
+    <mergeCell ref="AG21:AG23"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="AL38:AL40"/>
+    <mergeCell ref="AM38:AM40"/>
+    <mergeCell ref="AN38:AN40"/>
+    <mergeCell ref="A43:D46"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
@@ -8852,369 +8905,306 @@
     <mergeCell ref="AI14:AI17"/>
     <mergeCell ref="AJ14:AJ17"/>
     <mergeCell ref="AF21:AF23"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="AL38:AL40"/>
-    <mergeCell ref="AM38:AM40"/>
-    <mergeCell ref="AN38:AN40"/>
-    <mergeCell ref="A43:D46"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="AN35:AN37"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="AB35:AB37"/>
-    <mergeCell ref="AC35:AC37"/>
-    <mergeCell ref="AJ35:AJ37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="AD11:AD40"/>
-    <mergeCell ref="AB18:AB20"/>
-    <mergeCell ref="AC18:AC20"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="Y14:Y17"/>
-    <mergeCell ref="Z14:Z17"/>
-    <mergeCell ref="AC28:AC30"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="AC21:AC23"/>
-    <mergeCell ref="AG21:AG23"/>
-    <mergeCell ref="A11:A40"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="AK35:AK37"/>
-    <mergeCell ref="AL35:AL37"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="AC24:AC27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="AB28:AB30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="R28:R30"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="AB24:AB27"/>
+    <mergeCell ref="V11:V30"/>
+    <mergeCell ref="W11:W30"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="R21:R23"/>
     <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="AJ31:AJ34"/>
-    <mergeCell ref="AF35:AF40"/>
-    <mergeCell ref="AG35:AG40"/>
-    <mergeCell ref="AH35:AH40"/>
-    <mergeCell ref="AI35:AI40"/>
-    <mergeCell ref="AF28:AF30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK14:AK17"/>
-    <mergeCell ref="AL14:AL17"/>
-    <mergeCell ref="AM14:AM17"/>
-    <mergeCell ref="AN14:AN17"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AJ28:AJ30"/>
-    <mergeCell ref="AJ21:AJ23"/>
-    <mergeCell ref="AJ18:AJ20"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AM35:AM37"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AF18:AF20"/>
-    <mergeCell ref="AG18:AG20"/>
-    <mergeCell ref="AH18:AH20"/>
-    <mergeCell ref="AI18:AI20"/>
-    <mergeCell ref="AH21:AH23"/>
-    <mergeCell ref="AI21:AI23"/>
-    <mergeCell ref="AF31:AF34"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AF24:AF27"/>
-    <mergeCell ref="AG24:AG27"/>
-    <mergeCell ref="AH24:AH27"/>
-    <mergeCell ref="AI24:AI27"/>
-    <mergeCell ref="AG31:AG34"/>
-    <mergeCell ref="AH31:AH34"/>
-    <mergeCell ref="AI31:AI34"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="Q31:Q34"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="W31:W34"/>
+    <mergeCell ref="AB31:AB34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M38:M40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J41:M41 L43:M68">
-    <cfRule type="cellIs" dxfId="51" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K35">
-    <cfRule type="containsBlanks" dxfId="50" priority="109" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="49" priority="109" stopIfTrue="1">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L40">
-    <cfRule type="top10" dxfId="49" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="48" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10">
-    <cfRule type="cellIs" dxfId="47" priority="344" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="344" stopIfTrue="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N40">
-    <cfRule type="cellIs" dxfId="46" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="132" stopIfTrue="1" operator="equal">
       <formula>"VA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="45" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="14" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O12">
-    <cfRule type="containsBlanks" dxfId="44" priority="15" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="43" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(O11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="43" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="17" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="42" priority="18" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="41" priority="18" stopIfTrue="1">
       <formula>LEN(TRIM(O12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O15">
-    <cfRule type="cellIs" dxfId="41" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O16">
-    <cfRule type="containsBlanks" dxfId="40" priority="13" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="39" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(O13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="20" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="38" priority="21" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="37" priority="21" stopIfTrue="1">
       <formula>LEN(TRIM(O16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O18">
-    <cfRule type="cellIs" dxfId="37" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="10" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O19">
-    <cfRule type="containsBlanks" dxfId="36" priority="11" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="35" priority="11" stopIfTrue="1">
       <formula>LEN(TRIM(O17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="cellIs" dxfId="35" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="34" priority="24" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="33" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(O19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O21">
-    <cfRule type="cellIs" dxfId="33" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O22">
-    <cfRule type="containsBlanks" dxfId="32" priority="9" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="31" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(O20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="27" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="29" priority="27" stopIfTrue="1">
       <formula>LEN(TRIM(O22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:O24">
-    <cfRule type="cellIs" dxfId="29" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:O25">
-    <cfRule type="containsBlanks" dxfId="28" priority="7" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="27" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(O23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="30" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="25" priority="30" stopIfTrue="1">
       <formula>LEN(TRIM(O25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:O28">
-    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:O29">
-    <cfRule type="containsBlanks" dxfId="24" priority="5" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="23" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(O26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O31">
-    <cfRule type="cellIs" dxfId="23" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="22" priority="33" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="21" priority="33" stopIfTrue="1">
       <formula>LEN(TRIM(O29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="cellIs" dxfId="21" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="39" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="20" priority="40" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="19" priority="40" stopIfTrue="1">
       <formula>LEN(TRIM(O32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O33">
-    <cfRule type="containsBlanks" dxfId="19" priority="37" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="18" priority="37" stopIfTrue="1">
       <formula>LEN(TRIM(O32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33">
-    <cfRule type="cellIs" dxfId="18" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="36" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O37">
-    <cfRule type="cellIs" dxfId="17" priority="418" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="418" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="16" priority="419" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="15" priority="419" stopIfTrue="1">
       <formula>LEN(TRIM(O34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="containsBlanks" dxfId="15" priority="413" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="14" priority="413" stopIfTrue="1">
       <formula>LEN(TRIM(O36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:O40">
-    <cfRule type="containsBlanks" dxfId="14" priority="403" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="403" stopIfTrue="1">
       <formula>LEN(TRIM(O38))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="402" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="402" stopIfTrue="1" operator="equal">
       <formula>"NVA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="containsBlanks" dxfId="12" priority="397" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="397" stopIfTrue="1">
       <formula>LEN(TRIM(O39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R37">
-    <cfRule type="containsBlanks" dxfId="11" priority="118" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="10" priority="118" stopIfTrue="1">
       <formula>LEN(TRIM(R11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R38:S40">
-    <cfRule type="cellIs" dxfId="10" priority="477" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="477" stopIfTrue="1" operator="equal">
       <formula>"VA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S37">
-    <cfRule type="cellIs" dxfId="9" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="110" stopIfTrue="1" operator="equal">
       <formula>"VA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:U40">
-    <cfRule type="containsBlanks" dxfId="8" priority="41" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="41" stopIfTrue="1">
       <formula>LEN(TRIM(T11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AC40">
-    <cfRule type="containsBlanks" dxfId="7" priority="136" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="136" stopIfTrue="1">
       <formula>LEN(TRIM(AB18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC17 G11:G40">
-    <cfRule type="containsBlanks" dxfId="6" priority="128" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="128" stopIfTrue="1">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11 AF14:AF18 AI14:AI18 AF21 AI21 AF24:AF28 AF31">
-    <cfRule type="containsBlanks" dxfId="5" priority="475" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="475" stopIfTrue="1">
       <formula>LEN(TRIM(AF11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF35 AI35">
-    <cfRule type="containsBlanks" dxfId="4" priority="360" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="360" stopIfTrue="1">
       <formula>LEN(TRIM(AF35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF41:AH41">
-    <cfRule type="cellIs" dxfId="3" priority="340" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="340" stopIfTrue="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH10">
-    <cfRule type="cellIs" dxfId="2" priority="341" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="341" stopIfTrue="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ41 AJ43:AJ68">
-    <cfRule type="cellIs" dxfId="1" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
